--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,33 +49,39 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
@@ -85,112 +91,139 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>friend</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>support</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>join</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -548,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -667,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6176470588235294</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4324324324324325</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.417989417989418</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3529411764705883</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3372093023255814</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2711864406779661</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1812080536912752</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.05555555555555555</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.76875</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,21 +1442,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>123</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,21 +1544,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6279069767441861</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,21 +1570,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6029411764705882</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1591,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1617,21 +1674,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,21 +1700,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5525423728813559</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5523012552301255</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,21 +1752,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.525</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1804,16 +1861,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4047619047619048</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.3013698630136986</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,33 +1908,293 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.2307692307692308</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L36">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>37</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L37">
         <v>18</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>18</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>60</v>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38">
+        <v>0.5212765957446809</v>
+      </c>
+      <c r="L38">
+        <v>49</v>
+      </c>
+      <c r="M38">
+        <v>49</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>0.5152542372881356</v>
+      </c>
+      <c r="L39">
+        <v>152</v>
+      </c>
+      <c r="M39">
+        <v>152</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
